--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -3,30 +3,126 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BED91C-6B97-49BC-BF09-920D3241F6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B414D3F-C171-420D-80F5-89BFA06981F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PagoMasivoPrestamo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>19 abr. 2023, 10:44:26</t>
+  </si>
+  <si>
+    <t>ASARMIENTOA1</t>
+  </si>
+  <si>
+    <t>tipo_carga</t>
+  </si>
+  <si>
+    <t>archivo</t>
+  </si>
+  <si>
+    <t>ARCUPLOAD</t>
+  </si>
+  <si>
+    <t>D:\Proyectos\Regresion\src\Excel\entregable2\Mod_Masiva_Clientes_PN_18.csv</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3 may. 2023, 00:53:51</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 00:55:54</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 00:56:44</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 00:57:38</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 00:59:25</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:01:37</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:03:19</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:06:35</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:07:47</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:08:47</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:10:33</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:11:53</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:13:34</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:14:54</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 01:17:49</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +130,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +458,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B414D3F-C171-420D-80F5-89BFA06981F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED56AC9-709C-47A8-8B14-D0909E782FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -45,83 +45,34 @@
     <t>123456</t>
   </si>
   <si>
+    <t>ASARMIENTOA1</t>
+  </si>
+  <si>
+    <t>tipo_carga</t>
+  </si>
+  <si>
+    <t>archivo</t>
+  </si>
+  <si>
+    <t>ARCUPLOAD</t>
+  </si>
+  <si>
+    <t>UPLD2317909159 14</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>19 abr. 2023, 10:44:26</t>
-  </si>
-  <si>
-    <t>ASARMIENTOA1</t>
-  </si>
-  <si>
-    <t>tipo_carga</t>
-  </si>
-  <si>
-    <t>archivo</t>
-  </si>
-  <si>
-    <t>ARCUPLOAD</t>
-  </si>
-  <si>
-    <t>D:\Proyectos\Regresion\src\Excel\entregable2\Mod_Masiva_Clientes_PN_18.csv</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3 may. 2023, 00:53:51</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 00:55:54</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 00:56:44</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 00:57:38</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 00:59:25</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:01:37</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:03:19</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:06:35</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:07:47</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:08:47</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:10:33</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:11:53</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:13:34</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:14:54</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 01:17:49</t>
+    <t>28 jun. 2023, 14:35:52</t>
+  </si>
+  <si>
+    <t>/src/Excel/entregable2/ABONOCTS2023020101.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,15 +412,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -480,10 +431,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -497,25 +448,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED56AC9-709C-47A8-8B14-D0909E782FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14F26F9-35E3-489E-A896-066371EAABD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>ASARMIENTOA1</t>
-  </si>
-  <si>
     <t>tipo_carga</t>
   </si>
   <si>
@@ -57,22 +54,41 @@
     <t>ARCUPLOAD</t>
   </si>
   <si>
-    <t>UPLD2317909159 14</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>28 jun. 2023, 14:35:52</t>
-  </si>
-  <si>
-    <t>/src/Excel/entregable2/ABONOCTS2023020101.txt</t>
+    <t>/src/Excel/entregable2/LoanPayment.csv</t>
+  </si>
+  <si>
+    <t>mrobles</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>walfaro</t>
+  </si>
+  <si>
+    <t>cuentaActiva</t>
+  </si>
+  <si>
+    <t>1003181948</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>17 jul. 2023, 17:05:50</t>
+  </si>
+  <si>
+    <t>17 jul. 2023, 17:12:26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,21 +425,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="49.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,42 +451,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>usuario</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>17 jul. 2023, 17:12:26</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 14:52:42</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14F26F9-35E3-489E-A896-066371EAABD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1585671-0E09-41BF-B71E-5C6061AF08D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>17 jul. 2023, 17:05:50</t>
-  </si>
-  <si>
-    <t>17 jul. 2023, 17:12:26</t>
   </si>
   <si>
     <t>4 ago. 2023, 14:52:42</t>
@@ -91,7 +85,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,19 +424,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="49.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -501,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1585671-0E09-41BF-B71E-5C6061AF08D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696E690-DA86-4D6D-B665-CE457C5DA0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -79,12 +79,22 @@
   </si>
   <si>
     <t>4 ago. 2023, 14:52:42</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 16:14:04</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 16:17:37</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 16:20:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,14 +439,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -494,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
+++ b/src/Excel/entregable2/PagoMasivoPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696E690-DA86-4D6D-B665-CE457C5DA0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E1C56B-1EB9-4390-BC6F-E7942C12C161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -76,15 +76,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>4 ago. 2023, 14:52:42</t>
-  </si>
-  <si>
-    <t>11 ago. 2023, 16:14:04</t>
-  </si>
-  <si>
-    <t>11 ago. 2023, 16:17:37</t>
   </si>
   <si>
     <t>11 ago. 2023, 16:20:19</t>
@@ -94,7 +85,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,19 +424,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.26953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -504,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
